--- a/master_template.xlsx
+++ b/master_template.xlsx
@@ -456,7 +456,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
